--- a/BGM一览.xlsx
+++ b/BGM一览.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="531">
   <si>
     <t>Sensitive Heart</t>
     <phoneticPr fontId="7"/>
@@ -571,14 +571,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>Floating Cloud</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>東方アイリッシュ</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t xml:space="preserve"> Foxtail-Grass Studio</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -679,10 +671,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>Fallusion -風神小紀行-</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>運命のダークサイド</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -691,35 +679,11 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>神々が恋した幻想郷</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>舞風～MAIKAZE～</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>東方華想神月</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>Foxtail-Grass Studio</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 芥川龍之介の河童　～ Candid Friend </t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>幻秋</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>幻想郷事変</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>k-waves LAB</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -1150,10 +1114,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t xml:space="preserve"> Foxtail-Grass Studio</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>sound sepher</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -1322,10 +1282,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t xml:space="preserve">柳ニ風 </t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t xml:space="preserve">どろどろどーん </t>
     <phoneticPr fontId="7"/>
   </si>
@@ -1347,10 +1303,6 @@
   </si>
   <si>
     <t>聖徳伝説 ～ True Administrator</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>柳の下のデュラハン</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -2846,36 +2798,746 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
+    <t>Dear Past</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>砕月</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>四季映</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>姬</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>（神）四季映</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>姬</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>伊奘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>诺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>质</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>风见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>幽香</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>黄昏フロンティア</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Purple Master </t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Unionest.NET</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>花詠束</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>東の国の眠らない夜</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>姬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>海棠果</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>宇佐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>堇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>深秘的楽曲集・宇佐見</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>堇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子と秘密の部室</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Mysterious Road</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雏</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>風神少女</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Speed Master.</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Fallusion -風神小紀行</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>射命丸文（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp）</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方文花帖　～ Shoot the Bullet</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>东风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>谷早苗</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>（神）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>东风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>谷早苗</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>洩矢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>诹访</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>（神）洩矢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>诹访</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>桥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>帕露西</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>星熊勇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仪</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>古明地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>觉</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>（神）古明地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>觉</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>灵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>路空</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>（神）灵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>路空</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>纳兹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>琳</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>多多良小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伞</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>云居一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>轮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/云山</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>村</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>纱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>水蜜</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 少女さとり ～ 3rd eye </t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>六十年目の東方裁判　～ Fate of Sixty Years</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>竹取飛翔　～ Lunatic Princess</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
     <t>千年幻想郷　～ History of the Moon</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t xml:space="preserve">三年幻想郷  </t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>神乃木製作所</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>Dear Past</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>月見酒</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>砕月</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>砕月</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>四季映</t>
+    <t>狂気の瞳　～ Invisible Full Moon</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>狂気の瞳　～ Invisible Full Moon</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ネクロファンタジア</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 幽雅に咲かせ、墨染の桜　～ Border of Life </t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 幽雅に咲かせ、墨染の桜　～ Border of Life </t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>彼岸帰航　～ Riverside View</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 信仰は儚き人間の為に </t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>神さびた古戦場　～ Suwa Foughten Field</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>圣白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>莲</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>暗黑能</t>
     </r>
     <r>
       <rPr>
@@ -2883,6 +3545,276 @@
         <color rgb="FF9C0006"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>集心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>楼</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>（神）白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>莲</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>暗黑能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>集心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>楼</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>感情の摩天楼　～ Cosmic Mind</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>感情の摩天楼　～ Cosmic Mind</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>封</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>兽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鵺</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>宫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>古芳香</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>苏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我屠自古</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>丰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>聪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>耳神子</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>（神）丰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>聪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>耳神子</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>若</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鹭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
@@ -2892,7 +3824,7 @@
   </si>
   <si>
     <r>
-      <t>（神）四季映</t>
+      <t>九十九八</t>
     </r>
     <r>
       <rPr>
@@ -2900,292 +3832,239 @@
         <color rgb="FF9C6500"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>桥</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>少名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>针</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>妙丸</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>莲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子/梅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>丽</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>闻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>史</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>纪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>附属CD</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>茨木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>华</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扇</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月丰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t>姬</t>
     </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>伊奘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>诺</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>物</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>质</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>风见</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>幽香</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>黄昏フロンティア</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Purple Master </t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>Unionest.NET</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>花詠束</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>東の国の眠らない夜</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/依</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t>姬</t>
     </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>海棠果</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>宇佐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>见</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>堇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>子</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>深秘的楽曲集・宇佐見</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>堇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>子と秘密の部室</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>Mysterious Road</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>やくさいながし</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>键</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>山</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>雏</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>厄神様の通り道</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>武陵桃源</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>月は幻想のままに　</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>風神少女</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>Speed Master.</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>Fallusion -風神小紀行</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>射命丸文（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>战</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sp）</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3194,972 +4073,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>方文花帖　～ Shoot the Bullet</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>东风</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>谷早苗</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>（神）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>东风</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>谷早苗</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>洩矢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>诹访</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>子</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>（神）洩矢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>诹访</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>子</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>水</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>桥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>帕露西</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>星熊勇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>仪</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>古明地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>觉</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>（神）古明地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>觉</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>灵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>乌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>路空</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>（神）灵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>乌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>路空</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>纳兹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>琳</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>多多良小</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>伞</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>云居一</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>轮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/云山</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>村</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>纱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>水蜜</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 少女さとり ～ 3rd eye </t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>六十年目の東方裁判　～ Fate of Sixty Years</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>竹取飛翔　～ Lunatic Princess</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>千年幻想郷　～ History of the Moon</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>狂気の瞳　～ Invisible Full Moon</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>狂気の瞳　～ Invisible Full Moon</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ネクロファンタジア</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 幽雅に咲かせ、墨染の桜　～ Border of Life </t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 幽雅に咲かせ、墨染の桜　～ Border of Life </t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>彼岸帰航　～ Riverside View</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 信仰は儚き人間の為に </t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>神さびた古戦場　～ Suwa Foughten Field</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>圣白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>莲</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>暗黑能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>乐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>集心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>绮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>楼</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>（神）白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>莲</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>暗黑能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>乐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>集心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>绮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>楼</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>感情の摩天楼　～ Cosmic Mind</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>感情の摩天楼　～ Cosmic Mind</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>封</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>兽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>鵺</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>宫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>古芳香</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>苏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>我屠自古</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>丰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>聪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>耳神子</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>（神）丰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>聪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>耳神子</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>若</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>鹭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>姬</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>九十九八</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>桥</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>少名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>针</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>妙丸</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>莲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>子/梅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>丽</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>东</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>方求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>闻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>史</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>纪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>附属CD</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>茨木</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>华</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C6500"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>扇</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>绵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>月丰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>姬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/依</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>姬</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>东</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
@@ -4180,10 +4096,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>Cattleya 幻想写景 -妖-</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 赤より紅い夢 </t>
     <phoneticPr fontId="7"/>
   </si>
@@ -4197,82 +4109,6 @@
   </si>
   <si>
     <t>つきかげクオリア</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ラクトガール　～ 少女密室</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve">籠居漏水 / [紅] ラクトガール　～ 少女密室  </t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>グーシャンダグー</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>郷音の多い料理店</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>紅楼　～ Eastern Dream…</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> そして今日も紅魔館の扉は開く</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>遠野幻想物語</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>無常幻想詩</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 東方妖々夢　～ Ancient Temple </t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>桜花爛漫、夢遊幻界</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>Foxtail-Grass Studio</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>Cattleya 幻想写景 -妖-</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>さくらさくら　～ Japanize Dream…</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>メグルユメ</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>砕月</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>なつかぜメモリア</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve">明日ハレの日、ケの昨日 </t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>メグリネ</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>Lupinus 幻想写景 -風</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -4291,26 +4127,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>暮色蒼然</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>はちみつれもん</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>東方天楼華</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>オーライフジャパン</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve">過ぎれば大抵は悪い気はしないもの </t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>上海アリス幻樂団</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -4339,22 +4155,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t xml:space="preserve">三年幻想郷 </t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>謀叛和楽陣</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>暮色蒼然</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve">歳月-雲流れ- </t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>sound sepher</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -4363,131 +4163,123 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
+    <t xml:space="preserve"> main</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> キュアリアス上海古牌 </t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>森近霖之助</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方幻想麻将</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>妖々夢　～ Snow or Cherry Petal</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>銀の絨毯、一雫の花片</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Foxtail-Grass Studio</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Cattleya 幻想写景 -妖-</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>萃夢想</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>萃う夢を想う</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Foxtail-Grass Studio</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>なつかぜメモリア</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 永夜抄　～ Eastern Night. </t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>幻想郷へのいざない</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Floating Cloud</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>東方アイリッシュ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>封印されし神々</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>秋風月</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Lupinus 幻想写景 -風</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>地霊達の起床</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve">仄暗い穴ぐらの底から </t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Foxtail-Grass Studio</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ほしくずアテリア</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
     <t xml:space="preserve"> 不思議なお祓い棒 </t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t xml:space="preserve"> main</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>神々が恋した幻想郷</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> キュアリアス上海古牌 </t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>森近霖之助</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>东</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>方幻想麻将</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>妖々夢　～ Snow or Cherry Petal</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>銀の絨毯、一雫の花片</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>Foxtail-Grass Studio</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>Cattleya 幻想写景 -妖-</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>萃夢想</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>萃う夢を想う</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Foxtail-Grass Studio</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>なつかぜメモリア</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 永夜抄　～ Eastern Night. </t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>幻想郷へのいざない</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>Floating Cloud</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>東方アイリッシュ</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>封印されし神々</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>秋風月</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>Lupinus 幻想写景 -風</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>地霊達の起床</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve">仄暗い穴ぐらの底から </t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Foxtail-Grass Studio</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ほしくずアテリア</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 不思議なお祓い棒 </t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t xml:space="preserve">諷詠 </t>
     <phoneticPr fontId="7"/>
   </si>
@@ -4575,10 +4367,6 @@
   </si>
   <si>
     <t>雪月風花</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>泛用曲</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -5198,10 +4986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F175"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5215,65 +5003,65 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B1" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C1" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D1" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="E1" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>126</v>
@@ -5281,25 +5069,25 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
@@ -5311,30 +5099,30 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -5345,195 +5133,195 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
@@ -5557,7 +5345,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>535</v>
+        <v>489</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>6</v>
@@ -5565,10 +5353,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
@@ -5582,10 +5370,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
@@ -5597,10 +5385,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>20</v>
@@ -5614,10 +5402,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>17</v>
@@ -5631,7 +5419,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>21</v>
@@ -5699,10 +5487,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>46</v>
@@ -5716,10 +5504,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>44</v>
@@ -5733,7 +5521,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>38</v>
@@ -5745,12 +5533,12 @@
         <v>14</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>40</v>
@@ -5801,7 +5589,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>57</v>
@@ -5835,7 +5623,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>61</v>
@@ -5887,7 +5675,7 @@
         <v>76</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>73</v>
@@ -5904,7 +5692,7 @@
         <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>75</v>
@@ -5913,29 +5701,29 @@
         <v>14</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>71</v>
@@ -5945,46 +5733,46 @@
         <v>72</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>580</v>
+        <v>528</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>579</v>
+        <v>527</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>577</v>
+        <v>525</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>581</v>
+        <v>529</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>582</v>
+        <v>530</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>578</v>
+        <v>526</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
@@ -6004,7 +5792,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>82</v>
@@ -6021,7 +5809,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>86</v>
@@ -6038,7 +5826,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>89</v>
@@ -6070,10 +5858,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
@@ -6085,10 +5873,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
@@ -6106,13 +5894,13 @@
         <v>100</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
@@ -6120,7 +5908,7 @@
         <v>106</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>97</v>
@@ -6134,10 +5922,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>109</v>
@@ -6151,10 +5939,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
@@ -6166,7 +5954,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>107</v>
@@ -6184,7 +5972,7 @@
         <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>115</v>
@@ -6201,22 +5989,22 @@
         <v>114</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
         <v>112</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>116</v>
@@ -6228,17 +6016,17 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
@@ -6246,11 +6034,11 @@
         <v>122</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>534</v>
+        <v>488</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>120</v>
@@ -6261,7 +6049,7 @@
         <v>121</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>118</v>
@@ -6275,7 +6063,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>123</v>
@@ -6292,160 +6080,160 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="D73" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="E73" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>98</v>
@@ -6456,19 +6244,19 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
@@ -6479,54 +6267,54 @@
         <v>128</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>0</v>
@@ -6537,13 +6325,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>102</v>
@@ -6554,178 +6342,178 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>42</v>
@@ -6739,13 +6527,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>7</v>
@@ -6756,7 +6544,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -6769,124 +6557,124 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>102</v>
@@ -6897,28 +6685,28 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
-        <v>533</v>
+        <v>487</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>102</v>
@@ -6929,376 +6717,376 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>536</v>
+        <v>490</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>537</v>
+        <v>491</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
-        <v>543</v>
+        <v>493</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>549</v>
+        <v>497</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1" t="s">
-        <v>550</v>
+        <v>498</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" s="5" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -7307,39 +7095,39 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="6" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="B147" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C147" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D147" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="E147" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="3" t="s">
-        <v>546</v>
+        <v>495</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>524</v>
+        <v>483</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>525</v>
+        <v>484</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>526</v>
+        <v>485</v>
       </c>
       <c r="F148" t="s">
-        <v>538</v>
+        <v>492</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
@@ -7347,16 +7135,16 @@
         <v>1</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
@@ -7364,16 +7152,16 @@
         <v>2</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>551</v>
+        <v>499</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>552</v>
+        <v>500</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>553</v>
+        <v>501</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>554</v>
+        <v>502</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
@@ -7381,16 +7169,16 @@
         <v>3</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>555</v>
+        <v>503</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>556</v>
+        <v>504</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>557</v>
+        <v>505</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>558</v>
+        <v>506</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
@@ -7398,16 +7186,16 @@
         <v>4</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>559</v>
+        <v>507</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>560</v>
+        <v>508</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>561</v>
+        <v>509</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>562</v>
+        <v>510</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
@@ -7415,16 +7203,16 @@
         <v>5</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>563</v>
+        <v>511</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>564</v>
+        <v>512</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>557</v>
+        <v>505</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>565</v>
+        <v>513</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
@@ -7432,16 +7220,16 @@
         <v>6</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>566</v>
+        <v>514</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>567</v>
+        <v>515</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>568</v>
+        <v>516</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>569</v>
+        <v>517</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
@@ -7449,16 +7237,16 @@
         <v>7</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>570</v>
+        <v>518</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>571</v>
+        <v>519</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>572</v>
+        <v>520</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>573</v>
+        <v>521</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
@@ -7466,230 +7254,14 @@
         <v>8</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>574</v>
+        <v>522</v>
       </c>
       <c r="C156" s="8"/>
       <c r="D156" s="8" t="s">
-        <v>575</v>
+        <v>523</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A160" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B161" t="s">
-        <v>505</v>
-      </c>
-      <c r="C161" t="s">
-        <v>506</v>
-      </c>
-      <c r="D161" t="s">
-        <v>507</v>
-      </c>
-      <c r="E161" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B162" t="s">
-        <v>509</v>
-      </c>
-      <c r="C162" t="s">
-        <v>510</v>
-      </c>
-      <c r="D162" t="s">
-        <v>130</v>
-      </c>
-      <c r="E162" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B163" t="s">
-        <v>511</v>
-      </c>
-      <c r="D163" t="s">
-        <v>167</v>
-      </c>
-      <c r="E163" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B164" t="s">
-        <v>513</v>
-      </c>
-      <c r="C164" t="s">
-        <v>514</v>
-      </c>
-      <c r="D164" t="s">
-        <v>515</v>
-      </c>
-      <c r="E164" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B165" t="s">
-        <v>517</v>
-      </c>
-      <c r="C165" t="s">
-        <v>518</v>
-      </c>
-      <c r="D165" t="s">
-        <v>163</v>
-      </c>
-      <c r="E165" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B166" t="s">
-        <v>519</v>
-      </c>
-      <c r="C166" t="s">
-        <v>542</v>
-      </c>
-      <c r="D166" t="s">
-        <v>271</v>
-      </c>
-      <c r="E166" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B167" t="s">
-        <v>427</v>
-      </c>
-      <c r="C167" t="s">
-        <v>426</v>
-      </c>
-      <c r="D167" t="s">
-        <v>130</v>
-      </c>
-      <c r="E167" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B168" t="s">
-        <v>422</v>
-      </c>
-      <c r="C168" t="s">
-        <v>423</v>
-      </c>
-      <c r="D168" t="s">
-        <v>424</v>
-      </c>
-      <c r="E168" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B169" t="s">
-        <v>444</v>
-      </c>
-      <c r="C169" t="s">
-        <v>442</v>
-      </c>
-      <c r="D169" t="s">
-        <v>98</v>
-      </c>
-      <c r="E169" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B170" t="s">
-        <v>160</v>
-      </c>
-      <c r="C170" t="s">
-        <v>445</v>
-      </c>
-      <c r="D170" t="s">
-        <v>102</v>
-      </c>
-      <c r="E170" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B171" t="s">
-        <v>547</v>
-      </c>
-      <c r="C171" t="s">
-        <v>446</v>
-      </c>
-      <c r="D171" t="s">
-        <v>161</v>
-      </c>
-      <c r="E171" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B172" t="s">
-        <v>521</v>
-      </c>
-      <c r="C172" t="s">
-        <v>522</v>
-      </c>
-      <c r="D172" t="s">
-        <v>207</v>
-      </c>
-      <c r="E172" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B173" t="s">
-        <v>527</v>
-      </c>
-      <c r="C173" t="s">
-        <v>541</v>
-      </c>
-      <c r="D173" t="s">
-        <v>528</v>
-      </c>
-      <c r="E173" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B174" t="s">
-        <v>545</v>
-      </c>
-      <c r="C174" t="s">
-        <v>531</v>
-      </c>
-      <c r="D174" t="s">
-        <v>530</v>
-      </c>
-      <c r="E174" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B175" t="s">
-        <v>321</v>
-      </c>
-      <c r="C175" t="s">
-        <v>314</v>
-      </c>
-      <c r="D175" t="s">
-        <v>141</v>
-      </c>
-      <c r="E175" t="s">
-        <v>296</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/BGM一览.xlsx
+++ b/BGM一览.xlsx
@@ -16,130 +16,130 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="607">
   <si>
     <t>Sensitive Heart</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Scarlet Destiny</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>妖魔夜行</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>食べたい人がいる</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>大妖精</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ルーネイトエルフ</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>東方小曲集 -唯我独尊</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>狐兎疋</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>雪月風花</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Sensitive Heart</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Scarlet Destiny</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> Cirno Stylish!</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>核熱造神ヒソウテンソク</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>黄昏フロンティア</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>狐兎疋</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Sensitive Heart</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>SCARLET DESTINY</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>陽炎の都、白日の租界</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>趣味工房にんじんわいん</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>桜～SAKURA～ 紅響楼閣</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">虹のカメリア </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ヴワル魔法図書館</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">小悪魔とワルツを </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>はちみつれもん</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>百花星彩</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>帕秋莉</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ラクトガール　～ 少女密室</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> I'll save your mind</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>SCARLET DESTINY</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>月時計　～ ルナ・ダイアル</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>BRILLIANT LUNATION</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>雪月風花</t>
@@ -155,43 +155,43 @@
     <rPh sb="3" eb="4">
       <t>ハナ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>フラワリングナイト</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">ナイト・オブ・ナイツ </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Unionest.NET</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>花詠束</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>十六夜咲夜</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>（神）十六夜咲夜</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>U.N.オーエンは彼女なのか？</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>小さな悪魔の輪舞曲</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>魔法少女達の百年祭</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>千秋万歳之祭祀</t>
@@ -207,23 +207,23 @@
     <rPh sb="6" eb="7">
       <t>マツ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>松風水月</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>狐兎疋</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Scarlet Destiny</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Sensitive Heart</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>其の華 紅く</t>
@@ -236,746 +236,746 @@
     <rPh sb="4" eb="5">
       <t>アカ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>松風水月</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 無何有の郷　～ Deep Mountain </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>雪月風花</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>蕾蒂</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>橙</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>夢幻泡沫</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> ティアオイエツォン(withered leaf) </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 天行く月を　網に刺し  </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Whisper Records</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>phantasmagoria</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ブクレシュティの人形師</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>桜幻樂典 ～ Fantasic record of Cherry-blossom</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>莉莉白</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>天空の花の都</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 幽霊楽団　～ Phantom Ensemble </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>幽霊幻想譚</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>松風水月</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 東方妖々夢　～ Ancient Temple </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Foxtail-Grass Studio</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>広有射怪鳥事　～ Till When?</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Garden of nether world</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>落花流水</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>魂魄妖梦</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>（神）魂魄妖梦</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>少女幻葬　～ Necro-Fantasy</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>来夢緑</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Cattleya</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Cattleya 幻想写景 -妖-</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>天華桜</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>西行寺幽幽子</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>（神）西行寺幽幽子</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>莉格露</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>幻視の夜　～ Ghostly Eyes</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>彩音 ～xi-on～</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>彩花永月 - さいかえいげつ</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>もう歌しか聞こえない</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">残響 - she is certainly - </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>流派未月亭</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>月読-blue moon</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>懐かしき東方の血　～ Old World</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Sensitive Heart</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>月射録 ～ The Moon-shooter</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> エクステンドアッシュ　～ 蓬莱人 </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>東方永夜抄 ～ Imperishable Night</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>上海アリス幻樂団</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>因幡帝</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> シンデレラケージ　～ Kagome-Kagome </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>眠れぬ浮世の月明り</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> Foxtail-Grass Studio</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>かぜがたり</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>千年幻想郷 ～ History of the Moon</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Sensitive Heart</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>月射録 ～ The Moon-shooter</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>千年幻想郷　～ History of the Moon</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>八意永琳</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>狐兎疋</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>落花流水</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>彩音 ～xi-on～</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>彩花永月 - さいかえいげつ</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>（神）八意永琳</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>月まで届け、不死の煙</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>月射録 ～ The Moon-shooter</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">竹取飛翔 ～ Lunatic Princess </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>狐兎疋</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>松風水月</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>はちみつれもん</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>伊吹萃香</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>（神）伊吹萃香</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>美酒嘉友</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">桜の国の説教神 </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Xing Flowers</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>梦幻泡沫</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>夢幻泡沫</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>東方小曲集 -唯我独尊</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>（神）小野塚小町</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>小野塚小町</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 今昔幻想郷　～ Flower Land </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">金色の日輪畑　 </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>苺坊主</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>東方幻想魔録オリジナルサウンドトラック</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>射命丸文</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 妖怪の山　～ Mysterious Mountain </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Fallusion -風神小紀行</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> Foxtail-Grass Studio</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 幽趣佳境</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>梅蒂欣</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> ポイズンボディ　～ Forsaken Doll </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>東方花映塚 ～ Phantasmagoria of Flower View</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>上海アリス幻樂団</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>比那名居天子</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>有頂天変 ~Wonderful Heaven</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 爛漫  </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>流派未月亭</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 幽趣佳境</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>永江衣玖</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>黒い海に紅く　～ Legendary Fish</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Diverse System</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>thE2.5</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> Akanistha set ～ 黒い海に紅く  </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秋静叶</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>人恋し神様　～ Romantic Fall</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>二つの秋</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Fallusion -風神小紀行-</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秋穰子</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>稲田姫様に叱られるから</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">里の風景 </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>CARROTWINE</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>幻想郷英幽伝説FD</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>運命のダークサイド</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Lupinus 幻想写景 -風</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 芥川龍之介の河童　～ Candid Friend </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>幻秋</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>河城荷取</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>犬走椛</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>フォールオブフォール　～ 秋めく滝</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ささぶね</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>狐兎疋</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> Foxtail-Grass Studio</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Lupinus 幻想写景 -風</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 永却の螺旋～ウロボロスの輪  </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">流派未確定 </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>東方幻神録</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">明日ハレの日、ケの昨日 </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>落花流水</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ネイティブフェイス</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> Lupinus</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>（神）射命丸文</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">有為転変は世の習い </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 神語り  </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Lupinus 幻想写景 -風</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>八坂神奈子</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>太古の奇跡</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>神様と共に</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>（神）八坂神奈子</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>琪斯美</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>暗闇の風穴</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">泡沫の夢、地底の浪漫 </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> Foxtail-Grass Studio</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ほしくずアテリア</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>黑谷山女</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>封じられた妖怪 ～ Lost Place</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>東方地霊殿 ～ Subterranean Animism.</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>緑眼のジェラシー</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">true+tree </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> Foxtail-Grass Studio</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>monocolotion</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>旧地獄街道を行く</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>干瓢碁</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ニコニコ原曲</t>
     <rPh sb="4" eb="6">
       <t>ゲンキョク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">瞳の中で踊り踊られ </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> Foxtail-Grass Studio</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">ほしくずアテリア </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">幻想の誘い（いざない）  </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>AQUA STYLE</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>幻想フォークロア -illusion folklore-</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>火焰猫燐</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>廃獄ララバイ</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>霊知の太阳信仰　～ Nuclear Fusion</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>El fuego de Dios</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ラストリモート</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>デュルシフィカムの果実</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>狐兎疋</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>夢幻泡沫</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>古明地恋</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ハルトマンの妖怪少女</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>干瓢碁</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>（神）古明地恋</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>魅魔</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Reincarnation/リーインカーネイション</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">月花 </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>XL project</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>東方小曲集-唯我独尊-</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>北白河千百合</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>卡娜</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>夢消失　～Lost Dream</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>落花流水</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">夢は儚き時の流れ - Past Dream. </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>AncientChronicle</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Retrospective Romance</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>幽香（旧）</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>眠れる恐怖　～Sleeping Terror</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>錦上添花</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>松風水月</t>
@@ -991,367 +991,367 @@
     <rPh sb="3" eb="4">
       <t>ツキ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Floating Cloud</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 霊戦　～ Perdition crisis </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>かわいい悪魔　～ Innocence</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>The Grimoire of Alice</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>春の湊に</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>落花流水</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>狐兎疋</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>万年置き傘にご注意を</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>干瓢碁</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ニコニコ原曲</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>時代親父とハイカラ少女</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>東方星蓮船 ～ Undefined Fantastic Object.</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>キャプテン・ムラサ</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Grateful Ladle</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>寅丸星</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>虎柄の毘沙門天</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Emotional Grattacielo</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">Undefined Existence </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>平安のエイリアン</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>幽谷响子</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 門前の妖怪小娘 </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>死霊の夜桜</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 清河滔々 </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>梶迫小道具店</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>兼知未然</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>東方神霊廟 ～ Ten Desires.</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>リジッドパラダイス</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>BRAIN LOGIC</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>雪月風花</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>デザイアドライブ</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>sound sepher</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Harmonia</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> オーライフジャパン</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>壮快廟探訪</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">ファーイーストデザイア </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 夢殿大祀廟 </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>物部布都</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>大神神話伝</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">異教徒退治 </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> オーライフジャパン</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>壮快廟探訪</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 栄華  </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Take &amp; Tale</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>流派未月亭</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>聖徳伝説 ～ True Administrator</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>二岩猯藏</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>佐渡の二ッ岩</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>柳緑花紅.</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秦心</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>亡失のエモーション</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ラストオカルティズム~現し世の秘術師</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秘境のマーメイド</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>東方輝針城 ～ Double Dealing Character.</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>赤蛮奇</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>水古譚-suikotan-</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>オーライフジャパン</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>謀叛和楽陣</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>満月の竹林</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">朱染めの一手 </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>木製みゅーと</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>赤と朱の符牒</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>今泉影狼</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>幻想浄瑠璃</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>SWING HOLIC</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>SWING HOLIC VOL.15</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>鬼人正邪</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>リバースイデオロギー</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">鬼謳  </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>輝く針の小人族　～ Little Princess</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 敢闘 -little bravery-  </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>堀川雷鼓</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>始原のビート　～ Pristine Beat</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">どろどろどーん </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 九十九ノ神  </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">行雲流水 </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>九十九弁弁</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>幻想浄瑠璃</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>聖徳伝説 ～ True Administrator</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>柳の下のデュラハン</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>少女秘封倶楽部</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">風舞う紅葉と実の薫り </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> Foxtail-Grass Studio</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Remember*C -autumn</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>稗田阿求</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>阿礼の子供</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>華狭間のバトルフィールド</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">綿月のスペルカード　～ Lunatic Blue </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>桑尼/露娜/斯塔</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>真夜中のフェアリーダンス</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>コティングリー症候群</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>夢幻泡沫</t>
@@ -1364,43 +1364,43 @@
     <rPh sb="3" eb="4">
       <t>アワ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>少女綺想曲　～ Dream Battle</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>昼下がりの憂鬱</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>みかん箱</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>pastoral landscape</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>春色小径　～ Colorful Path</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>恋色マスタースパーク</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>彩音 ～xi-on～</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>彩花永月 - さいかえいげつ</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>星の器　～ Casket of Star</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1425,7 +1425,7 @@
       </rPr>
       <t>人物</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1442,7 +1442,7 @@
       </rPr>
       <t>标题</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1459,7 +1459,7 @@
       </rPr>
       <t>团</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1484,67 +1484,67 @@
       </rPr>
       <t>名</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Strawberry Crisis!!</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Sailor of Time</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 夢幻遊戯　～Dream War </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>神話幻想　～ Infinite Being</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>梦月 &amp; 幻月</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>落星狼藉</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>魔女達の舞踏会</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>幻想曲拔萃</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>魔理沙（大盗sp）</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>超魔理沙</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>東方妖恋談</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>二色蓮花蝶</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>苺坊主</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>全人類ノ天楽録</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>少女綺想曲　～ Capriccio</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1572,7 +1572,7 @@
       </rPr>
       <t>灵梦</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1600,7 +1600,7 @@
       </rPr>
       <t>灵梦</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1628,7 +1628,7 @@
       </rPr>
       <t>灵梦</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1656,7 +1656,7 @@
       </rPr>
       <t>sp灵梦</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1684,7 +1684,7 @@
       </rPr>
       <t>sp灵梦</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1709,7 +1709,7 @@
       </rPr>
       <t>雨魔理沙</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1737,7 +1737,7 @@
       </rPr>
       <t>/旧作sp魔理沙</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1787,7 +1787,7 @@
       </rPr>
       <t>楼</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1804,7 +1804,7 @@
       </rPr>
       <t>崎梦美</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1854,7 +1854,7 @@
       </rPr>
       <t>史 vol.4</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1904,7 +1904,7 @@
       </rPr>
       <t>史 vol.4</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1921,7 +1921,7 @@
       </rPr>
       <t>里香子</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1938,7 +1938,7 @@
       </rPr>
       <t>丽</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -1988,7 +1988,7 @@
       </rPr>
       <t>史 vol.1</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2038,11 +2038,11 @@
       </rPr>
       <t>史 vol.1</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>神绮</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2092,7 +2092,7 @@
       </rPr>
       <t>史 vol.2</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2109,7 +2109,7 @@
       </rPr>
       <t>（旧）</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2159,7 +2159,7 @@
       </rPr>
       <t>史 vol.2</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2176,7 +2176,7 @@
       </rPr>
       <t>娅</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2193,7 +2193,7 @@
       </rPr>
       <t>诺</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2210,7 +2210,7 @@
       </rPr>
       <t>诺</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2246,7 +2246,7 @@
       </rPr>
       <t>铃</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2285,27 +2285,27 @@
       </rPr>
       <t>铃</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>おてんば恋娘</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>おてんば恋娘</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>BGM曲名</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>上海紅茶館　～ Chinese Tea</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>上海紅茶館　～ Chinese Tea</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2333,7 +2333,7 @@
       </rPr>
       <t>魔</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2350,7 +2350,7 @@
       </rPr>
       <t>亚</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2367,15 +2367,15 @@
       </rPr>
       <t>亚</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 亡き王女の為のセプテット </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 亡き王女の為のセプテット </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2414,7 +2414,7 @@
       </rPr>
       <t>露</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2431,7 +2431,7 @@
       </rPr>
       <t>赋</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2470,7 +2470,7 @@
       </rPr>
       <t>露</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2484,7 +2484,7 @@
       </rPr>
       <t>爱丽丝</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2509,7 +2509,7 @@
       </rPr>
       <t>灵三姐妹</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2526,7 +2526,7 @@
       </rPr>
       <t>赋</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2554,7 +2554,7 @@
       </rPr>
       <t>sp）幽幽子</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2571,27 +2571,27 @@
       </rPr>
       <t>蓝</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>東方音聞録 初版</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">幻想の結界 </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>彩音 ～xi-on～</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>東方志奏 6th Spell -Undesigned Emotion-</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>（神）八云紫</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2608,7 +2608,7 @@
       </rPr>
       <t>亚</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2636,7 +2636,7 @@
       </rPr>
       <t>慧音</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2653,7 +2653,7 @@
       </rPr>
       <t>泽</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2678,7 +2678,7 @@
       </rPr>
       <t>仙</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2706,7 +2706,7 @@
       </rPr>
       <t>仙</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2734,7 +2734,7 @@
       </rPr>
       <t>夜</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2762,7 +2762,7 @@
       </rPr>
       <t>夜</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2779,31 +2779,31 @@
       </rPr>
       <t>红</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">訣別 - nihilism - (off vocal) </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>流派未月亭</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>月読-blue moon-</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>泛用曲</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Dear Past</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>砕月</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2820,7 +2820,7 @@
       </rPr>
       <t>姬</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2837,7 +2837,7 @@
       </rPr>
       <t>姬</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2876,7 +2876,7 @@
       </rPr>
       <t>质</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2901,27 +2901,27 @@
       </rPr>
       <t>幽香</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>黄昏フロンティア</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">Purple Master </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Unionest.NET</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>花詠束</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>東の国の眠らない夜</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2946,7 +2946,7 @@
       </rPr>
       <t>海棠果</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2985,7 +2985,7 @@
       </rPr>
       <t>子</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3013,11 +3013,11 @@
       </rPr>
       <t>子と秘密の部室</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Mysterious Road</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3053,19 +3053,19 @@
       </rPr>
       <t>雏</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>風神少女</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Speed Master.</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Fallusion -風神小紀行</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3093,7 +3093,7 @@
       </rPr>
       <t>sp）</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3118,7 +3118,7 @@
       </rPr>
       <t>方文花帖　～ Shoot the Bullet</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3143,7 +3143,7 @@
       </rPr>
       <t>谷早苗</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3171,7 +3171,7 @@
       </rPr>
       <t>谷早苗</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3199,7 +3199,7 @@
       </rPr>
       <t>子</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3227,7 +3227,7 @@
       </rPr>
       <t>子</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3255,7 +3255,7 @@
       </rPr>
       <t>帕露西</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3272,7 +3272,7 @@
       </rPr>
       <t>仪</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3289,7 +3289,7 @@
       </rPr>
       <t>觉</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3306,7 +3306,7 @@
       </rPr>
       <t>觉</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3334,7 +3334,7 @@
       </rPr>
       <t>路空</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3362,7 +3362,7 @@
       </rPr>
       <t>路空</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3387,7 +3387,7 @@
       </rPr>
       <t>琳</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3404,7 +3404,7 @@
       </rPr>
       <t>伞</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3440,7 +3440,7 @@
       </rPr>
       <t>/云山</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3468,55 +3468,55 @@
       </rPr>
       <t>水蜜</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 少女さとり ～ 3rd eye </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>六十年目の東方裁判　～ Fate of Sixty Years</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>竹取飛翔　～ Lunatic Princess</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>千年幻想郷　～ History of the Moon</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>狂気の瞳　～ Invisible Full Moon</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>狂気の瞳　～ Invisible Full Moon</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ネクロファンタジア</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 幽雅に咲かせ、墨染の桜　～ Border of Life </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 幽雅に咲かせ、墨染の桜　～ Border of Life </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>彼岸帰航　～ Riverside View</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 信仰は儚き人間の為に </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>神さびた古戦場　～ Suwa Foughten Field</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3533,7 +3533,7 @@
       </rPr>
       <t>莲</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3583,7 +3583,7 @@
       </rPr>
       <t>楼</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3600,7 +3600,7 @@
       </rPr>
       <t>莲</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3650,15 +3650,15 @@
       </rPr>
       <t>楼</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>感情の摩天楼　～ Cosmic Mind</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>感情の摩天楼　～ Cosmic Mind</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3686,7 +3686,7 @@
       </rPr>
       <t>鵺</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3711,7 +3711,7 @@
       </rPr>
       <t>古芳香</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3736,7 +3736,7 @@
       </rPr>
       <t>我屠自古</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3764,7 +3764,7 @@
       </rPr>
       <t>耳神子</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3792,7 +3792,7 @@
       </rPr>
       <t>耳神子</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3820,7 +3820,7 @@
       </rPr>
       <t>姬</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3837,7 +3837,7 @@
       </rPr>
       <t>桥</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3865,7 +3865,7 @@
       </rPr>
       <t>妙丸</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3901,7 +3901,7 @@
       </rPr>
       <t>丽</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3970,7 +3970,7 @@
       </rPr>
       <t>附属CD</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -3998,7 +3998,7 @@
       </rPr>
       <t>扇</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -4056,7 +4056,7 @@
       </rPr>
       <t>姬</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -4081,98 +4081,98 @@
       </rPr>
       <t>方儚月抄（漫画）附属CD</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">仙才鬼才の華 </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>AQUA STYLE</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>無幻のアウローラ</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 赤より紅い夢 </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>運命の鐘</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Foxtail-Grass Studio</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>つきかげクオリア</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>緋想天</t>
     <rPh sb="0" eb="3">
       <t>ヒソウテン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>祭事</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>CARNIVAL</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>上海アリス幻樂団</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>黄昏フロンティア</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>koutaq XL project</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>柳英一郎 XL project</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>霍青娥</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>（神）霍青娥</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">歳月-雲流れ- </t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>sound sepher</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>编号</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> main</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> キュアリアス上海古牌 </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>森近霖之助</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -4197,107 +4197,107 @@
       </rPr>
       <t>方幻想麻将</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>妖々夢　～ Snow or Cherry Petal</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>銀の絨毯、一雫の花片</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Foxtail-Grass Studio</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Cattleya 幻想写景 -妖-</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>萃夢想</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>萃う夢を想う</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> Foxtail-Grass Studio</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>なつかぜメモリア</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 永夜抄　～ Eastern Night. </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>幻想郷へのいざない</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Floating Cloud</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>東方アイリッシュ</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>封印されし神々</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>秋風月</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Lupinus 幻想写景 -風</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>地霊達の起床</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">仄暗い穴ぐらの底から </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> Foxtail-Grass Studio</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ほしくずアテリア</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> 不思議なお祓い棒 </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">諷詠 </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>流派未月亭</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>水古譚-suikotan-</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">塵界不変のペシミズム～心綺楼囃子 </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>黄昏フロンティア</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -4343,38 +4343,342 @@
       </rPr>
       <t>楼</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Lily of valley</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ネクロファンタジア</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>八云紫</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>狐兎疋</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>雪月風花</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 不思議なお祓い棒 </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">過ぎれば大抵は悪い気はしないもの </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>オーライフジャパン</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>謀叛和楽陣</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>opening1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>opening2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>opening4</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>opening6</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>opening8</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>opening3</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>opening5</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>opening7</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>opening9</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ラクトガール　～ 少女密室</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">籠居漏水 / [紅] ラクトガール　～ 少女密室  </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>グーシャンダグー</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>郷音の多い料理店</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>theme3</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 東方妖々夢　～ Ancient Temple </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>桜花爛漫、夢遊幻界</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Foxtail-Grass Studio</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Cattleya 幻想写景 -妖-</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>theme5</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>砕月</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>月見酒</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Floating Cloud</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>幻想郷事変</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>theme7</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>厄神様の通り道</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>やくさいながし</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Sensitive Heart</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Fallusion -風神小紀行-</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>theme9</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>神々が恋した幻想郷</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>月は幻想のままに　</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>舞風～MAIKAZE～</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>東方華想神月</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>theme11</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>柳の下のデュラハン</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">柳ニ風 </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>流派未月亭</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>水古譚-suikotan-</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>theme2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>遠野幻想物語</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>k-waves LAB</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>無常幻想詩</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>theme4</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Foxtail-Grass Studio</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>なつかぜメモリア</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>theme6</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>千年幻想郷　～ History of the Moon</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">三年幻想郷  </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>神乃木製作所</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">三年幻想郷 </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>theme8</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>武陵桃源</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>狐兎疋</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>夢幻泡沫</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>theme10</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">明日ハレの日、ケの昨日 </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>メグリネ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Lupinus 幻想写景 -風</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ending1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>紅楼　～ Eastern Dream…</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> そして今日も紅魔館の扉は開く</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Floating Cloud</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>東方アイリッシュ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ending3</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>暮色蒼然</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>はちみつれもん</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>東方天楼華</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ending2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>さくらさくら　～ Japanize Dream…</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>メグルユメ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>theme1</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4408,14 +4712,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -4442,13 +4738,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -4642,7 +4931,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -4653,40 +4942,34 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="6" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="40% - 强调文字颜色 2" xfId="5" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="4" builtinId="11"/>
+  <cellStyles count="7">
+    <cellStyle name="40% - 强调文字颜色 2" xfId="4" builtinId="35"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="输出" xfId="7" builtinId="21"/>
-    <cellStyle name="输入" xfId="6" builtinId="20"/>
+    <cellStyle name="输出" xfId="6" builtinId="21"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4986,10 +5269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F156"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5036,19 +5319,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>343</v>
       </c>
     </row>
@@ -5083,17 +5366,17 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5132,17 +5415,17 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>343</v>
       </c>
     </row>
@@ -5179,17 +5462,17 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>360</v>
       </c>
     </row>
@@ -5226,19 +5509,19 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>360</v>
       </c>
     </row>
@@ -5275,17 +5558,17 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>365</v>
       </c>
     </row>
@@ -5320,19 +5603,19 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5369,17 +5652,17 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5418,19 +5701,19 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5469,19 +5752,19 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5520,19 +5803,19 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>386</v>
       </c>
     </row>
@@ -5571,19 +5854,19 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5622,19 +5905,19 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5671,19 +5954,19 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5722,17 +6005,17 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4" t="s">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>393</v>
       </c>
     </row>
@@ -5776,17 +6059,17 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4" t="s">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5825,17 +6108,17 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4" t="s">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5872,17 +6155,17 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4" t="s">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5904,19 +6187,19 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5953,17 +6236,17 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4" t="s">
+      <c r="C63" s="3"/>
+      <c r="D63" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6000,17 +6283,17 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4" t="s">
+      <c r="D67" s="3"/>
+      <c r="E67" s="3" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6036,19 +6319,19 @@
       <c r="B69" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4" t="s">
+      <c r="C69" s="3"/>
+      <c r="D69" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>454</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -6094,19 +6377,19 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6145,17 +6428,17 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4" t="s">
+      <c r="C76" s="3"/>
+      <c r="D76" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="3" t="s">
         <v>458</v>
       </c>
     </row>
@@ -6192,19 +6475,19 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="3" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6243,19 +6526,19 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="3" t="s">
         <v>156</v>
       </c>
     </row>
@@ -6292,17 +6575,17 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4" t="s">
+      <c r="C86" s="3"/>
+      <c r="D86" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="3" t="s">
         <v>430</v>
       </c>
     </row>
@@ -6341,19 +6624,19 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="3" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6375,19 +6658,19 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="3" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6426,17 +6709,17 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4" t="s">
+      <c r="C95" s="3"/>
+      <c r="D95" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="3" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6475,19 +6758,19 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" s="3" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6526,19 +6809,19 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E101" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6571,19 +6854,19 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E104" s="3" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6620,17 +6903,17 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4" t="s">
+      <c r="C108" s="3"/>
+      <c r="D108" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="E108" s="3" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6652,17 +6935,17 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4" t="s">
+      <c r="C110" s="3"/>
+      <c r="D110" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="E110" s="3" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6699,19 +6982,19 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="E113" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6748,19 +7031,19 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E117" s="3" t="s">
         <v>265</v>
       </c>
     </row>
@@ -6771,7 +7054,7 @@
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>263</v>
@@ -6810,19 +7093,19 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="E121" s="3" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6859,17 +7142,17 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4" t="s">
+      <c r="C125" s="3"/>
+      <c r="D125" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E125" s="4" t="s">
+      <c r="E125" s="3" t="s">
         <v>284</v>
       </c>
     </row>
@@ -6908,19 +7191,19 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D128" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E128" s="4" t="s">
+      <c r="E128" s="3" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6959,19 +7242,19 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="E131" s="3" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7008,17 +7291,17 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4" t="s">
+      <c r="C135" s="3"/>
+      <c r="D135" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E135" s="4" t="s">
+      <c r="E135" s="3" t="s">
         <v>472</v>
       </c>
     </row>
@@ -7085,17 +7368,17 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A147" s="6" t="s">
-        <v>494</v>
+      <c r="A147" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="B147" t="s">
         <v>333</v>
@@ -7111,19 +7394,19 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A148" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B148" s="8" t="s">
+      <c r="A148" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B148" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C148" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="D148" s="8" t="s">
+      <c r="D148" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E148" s="8" t="s">
+      <c r="E148" s="7" t="s">
         <v>485</v>
       </c>
       <c r="F148" t="s">
@@ -7131,141 +7414,394 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A149" s="3">
-        <v>1</v>
-      </c>
-      <c r="B149" s="7" t="s">
+      <c r="A149" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C149" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="D149" s="7" t="s">
+      <c r="D149" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="E149" s="7" t="s">
+      <c r="E149" s="6" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A150" s="3">
-        <v>2</v>
-      </c>
-      <c r="B150" s="8" t="s">
+      <c r="A150" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="B150" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C150" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="D150" s="8" t="s">
+      <c r="D150" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="E150" s="8" t="s">
+      <c r="E150" s="7" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A151">
-        <v>3</v>
-      </c>
-      <c r="B151" s="7" t="s">
+      <c r="A151" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C151" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="D151" s="7" t="s">
+      <c r="D151" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="E151" s="7" t="s">
+      <c r="E151" s="6" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A152" s="9">
-        <v>4</v>
-      </c>
-      <c r="B152" s="8" t="s">
+      <c r="A152" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B152" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="C152" s="8" t="s">
+      <c r="C152" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="D152" s="8" t="s">
+      <c r="D152" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="E152" s="8" t="s">
+      <c r="E152" s="7" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A153" s="9">
-        <v>5</v>
-      </c>
-      <c r="B153" s="7" t="s">
+      <c r="A153" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C153" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="D153" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="E153" s="7" t="s">
+      <c r="E153" s="6" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A154" s="9">
-        <v>6</v>
-      </c>
-      <c r="B154" s="8" t="s">
+      <c r="A154" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="B154" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C154" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D154" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="E154" s="8" t="s">
+      <c r="E154" s="7" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A155" s="9">
-        <v>7</v>
-      </c>
-      <c r="B155" s="7" t="s">
+      <c r="A155" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C155" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D155" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="E155" s="6" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A156" s="9">
-        <v>8</v>
-      </c>
-      <c r="B156" s="8" t="s">
+      <c r="A156" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="B156" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="C156" s="8"/>
-      <c r="D156" s="8" t="s">
+      <c r="C156" s="7"/>
+      <c r="D156" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="E156" s="10" t="s">
+      <c r="E156" s="8" t="s">
         <v>524</v>
       </c>
     </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A157" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A159" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A160" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A161" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A162" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A163" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A164" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A165" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A166" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A167" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A168" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A169" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A171" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A172" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A173" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7279,7 +7815,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7292,7 +7828,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BGM一览.xlsx
+++ b/BGM一览.xlsx
@@ -4550,127 +4550,127 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
+    <t>無常幻想詩</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>theme4</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Foxtail-Grass Studio</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>なつかぜメモリア</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>theme6</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>千年幻想郷　～ History of the Moon</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">三年幻想郷  </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>神乃木製作所</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">三年幻想郷 </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>theme8</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>武陵桃源</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>狐兎疋</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>夢幻泡沫</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>theme10</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">明日ハレの日、ケの昨日 </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>メグリネ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Lupinus 幻想写景 -風</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ending1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>紅楼　～ Eastern Dream…</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> そして今日も紅魔館の扉は開く</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Floating Cloud</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>東方アイリッシュ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ending3</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>暮色蒼然</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>はちみつれもん</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>東方天楼華</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ending2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>さくらさくら　～ Japanize Dream…</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>メグルユメ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>theme1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
     <t>k-waves LAB</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>無常幻想詩</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>theme4</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Foxtail-Grass Studio</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>なつかぜメモリア</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>theme6</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>千年幻想郷　～ History of the Moon</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t xml:space="preserve">三年幻想郷  </t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>神乃木製作所</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t xml:space="preserve">三年幻想郷 </t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>theme8</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>武陵桃源</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>狐兎疋</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>夢幻泡沫</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>theme10</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t xml:space="preserve">明日ハレの日、ケの昨日 </t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>メグリネ</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Lupinus 幻想写景 -風</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ending1</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>紅楼　～ Eastern Dream…</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> そして今日も紅魔館の扉は開く</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Floating Cloud</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>東方アイリッシュ</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ending3</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>暮色蒼然</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>はちみつれもん</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>東方天楼華</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ending2</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>さくらさくら　～ Japanize Dream…</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>メグルユメ</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>theme1</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -5271,8 +5271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7566,7 +7566,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>545</v>
@@ -7590,10 +7590,10 @@
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="E160" s="6" t="s">
         <v>576</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.15">
@@ -7615,7 +7615,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>555</v>
@@ -7624,10 +7624,10 @@
         <v>493</v>
       </c>
       <c r="D162" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="E162" s="6" t="s">
         <v>579</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
@@ -7649,19 +7649,19 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="C164" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="D164" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="D164" s="6" t="s">
+      <c r="E164" s="6" t="s">
         <v>584</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
@@ -7683,19 +7683,19 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>565</v>
       </c>
       <c r="C166" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D166" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="D166" s="6" t="s">
+      <c r="E166" s="6" t="s">
         <v>588</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.15">
@@ -7717,19 +7717,19 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B168" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="C168" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="D168" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="E168" s="6" t="s">
         <v>592</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.15">
@@ -7751,30 +7751,30 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="B171" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="C171" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="D171" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="D171" s="6" t="s">
+      <c r="E171" s="6" t="s">
         <v>597</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B172" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="B172" s="7" t="s">
+      <c r="C172" s="7" t="s">
         <v>604</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>605</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>552</v>
@@ -7785,19 +7785,19 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="B173" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="C173" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="D173" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="C173" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="D173" s="6" t="s">
+      <c r="E173" s="6" t="s">
         <v>601</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>602</v>
       </c>
     </row>
   </sheetData>

--- a/BGM一览.xlsx
+++ b/BGM一览.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="610">
   <si>
     <t>Sensitive Heart</t>
     <phoneticPr fontId="6"/>
@@ -3503,10 +3503,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t xml:space="preserve"> 幽雅に咲かせ、墨染の桜　～ Border of Life </t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>彼岸帰航　～ Riverside View</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -4658,19 +4654,113 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
+    <t>メグルユメ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>theme1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>k-waves LAB</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
     <t>さくらさくら　～ Japanize Dream…</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>メグルユメ</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>theme1</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>k-waves LAB</t>
+    <t xml:space="preserve"> 幽雅に咲かせ、墨染の桜　～ Border of Life </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>死なばもろとも</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>萨丽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>艾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>尔</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>幺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乐团</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>历</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>史 vol.5</t>
+    </r>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -5269,10 +5359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5602,2202 +5692,2217 @@
         <v>369</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="B118" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A120" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A122" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A124" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A126" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A127" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A128" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A129" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A130" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A131" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A132" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A133" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A135" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A136" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A137" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A138" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A139" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A140" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A147" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A148" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B148" t="s">
+        <v>333</v>
+      </c>
+      <c r="C148" t="s">
+        <v>377</v>
+      </c>
+      <c r="D148" t="s">
+        <v>334</v>
+      </c>
+      <c r="E148" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A149" s="7" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A106" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A107" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A108" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A109" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A110" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A111" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A112" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A113" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A115" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A116" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A117" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A118" s="1" t="s">
+      <c r="B149" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F149" t="s">
         <v>491</v>
       </c>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A119" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A120" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A121" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A122" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A123" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A125" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A126" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A127" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A128" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A129" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A130" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A131" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A132" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A134" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A135" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A136" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="E136" s="2" t="s">
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A150" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A137" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A138" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A139" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1" t="s">
+      <c r="C150" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A151" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="B151" s="7" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A146" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A147" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="B147" t="s">
-        <v>333</v>
-      </c>
-      <c r="C147" t="s">
-        <v>377</v>
-      </c>
-      <c r="D147" t="s">
-        <v>334</v>
-      </c>
-      <c r="E147" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A148" s="7" t="s">
+      <c r="C151" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A152" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A153" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A154" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A155" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A156" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A157" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A158" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B158" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="B148" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="F148" t="s">
+      <c r="C158" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A160" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A161" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A162" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A163" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C163" s="6" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A149" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A150" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A151" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A152" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A153" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="E153" s="6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A154" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A155" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="E155" s="6" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A156" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="E156" s="8" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A157" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="E157" s="6" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A159" s="7" t="s">
+      <c r="D163" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A164" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A165" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A166" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A167" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A168" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A169" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A170" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A172" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A173" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="B173" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="B159" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="E159" s="7" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A160" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A161" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="C161" s="7" t="s">
+      <c r="C173" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="D173" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="D161" s="7" t="s">
+      <c r="E173" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="E161" s="7" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A162" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A163" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="E163" s="7" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A164" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A165" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A166" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A167" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="E167" s="7" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A168" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A169" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="E169" s="7" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A171" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="E171" s="6" t="s">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A174" s="6" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A172" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="E172" s="7" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A173" s="6" t="s">
+      <c r="B174" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="C174" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="D174" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="C173" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="D173" s="6" t="s">
+      <c r="E174" s="6" t="s">
         <v>600</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>601</v>
       </c>
     </row>
   </sheetData>

--- a/BGM一览.xlsx
+++ b/BGM一览.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="613">
   <si>
     <t>Sensitive Heart</t>
     <phoneticPr fontId="6"/>
@@ -4679,6 +4679,9 @@
   </si>
   <si>
     <r>
+      <t>幺</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF9C6500"/>
@@ -4687,12 +4690,59 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>乐团</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>历</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>史 vol.5</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>萨丽</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF9C6500"/>
+        <color rgb="FF9C0006"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -4703,7 +4753,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF9C6500"/>
+        <color rgb="FF9C0006"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
@@ -4720,7 +4770,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF9C6500"/>
+        <color rgb="FF9C0006"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
@@ -4731,7 +4781,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF9C6500"/>
+        <color rgb="FF9C0006"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -4742,7 +4792,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF9C6500"/>
+        <color rgb="FF9C0006"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
@@ -4753,7 +4803,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF9C6500"/>
+        <color rgb="FF9C0006"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -4761,6 +4811,14 @@
       </rPr>
       <t>史 vol.5</t>
     </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>矜羯罗</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>星幽剣士</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -5042,7 +5100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
@@ -5052,6 +5110,7 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="5" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - 强调文字颜色 2" xfId="4" builtinId="35"/>
@@ -5359,10 +5418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F174"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5693,2215 +5752,2230 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="E57" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
+      <c r="E89" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E104" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D71" s="1" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E113" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D74" s="3" t="s">
+      <c r="E117" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A119" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A122" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A123" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A124" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A125" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A127" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A129" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A130" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A131" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A132" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3" t="s">
+      <c r="E132" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A133" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A134" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3" t="s">
+      <c r="E134" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A136" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A137" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D105" s="3" t="s">
+      <c r="E137" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A138" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A139" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A140" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A107" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A108" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A109" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A110" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A111" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A112" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A113" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A114" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A116" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A117" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A118" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A119" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A120" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A121" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A122" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A123" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A124" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A126" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A127" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A128" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A129" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A130" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A131" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A132" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A133" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A135" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A136" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A137" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A138" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A139" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E139" s="2" t="s">
+      <c r="E140" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A140" s="1" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A141" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1" t="s">
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A147" s="4" t="s">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A148" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A148" s="5" t="s">
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A149" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B149" t="s">
         <v>333</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C149" t="s">
         <v>377</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D149" t="s">
         <v>334</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E149" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A149" s="7" t="s">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A150" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B150" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C150" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D149" s="7" t="s">
+      <c r="D150" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E149" s="7" t="s">
+      <c r="E150" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F150" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A150" s="6" t="s">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A151" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B151" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="C151" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="D150" s="6" t="s">
+      <c r="D151" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="E150" s="6" t="s">
+      <c r="E151" s="6" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A151" s="7" t="s">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A152" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B152" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C152" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="D151" s="7" t="s">
+      <c r="D152" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="E151" s="7" t="s">
+      <c r="E152" s="7" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A152" s="6" t="s">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A153" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B153" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C153" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="D152" s="6" t="s">
+      <c r="D153" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="E152" s="6" t="s">
+      <c r="E153" s="6" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A153" s="7" t="s">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A154" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B154" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C154" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="D154" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="E153" s="7" t="s">
+      <c r="E154" s="7" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A154" s="6" t="s">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A155" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B155" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="C155" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="D154" s="6" t="s">
+      <c r="D155" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="E154" s="6" t="s">
+      <c r="E155" s="6" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A155" s="7" t="s">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A156" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B156" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C156" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D156" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="E156" s="7" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A156" s="6" t="s">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A157" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B157" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C157" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="D156" s="6" t="s">
+      <c r="D157" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="E156" s="6" t="s">
+      <c r="E157" s="6" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A157" s="7" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A158" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B158" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7" t="s">
+      <c r="C158" s="7"/>
+      <c r="D158" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="E157" s="8" t="s">
+      <c r="E158" s="8" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A158" s="6" t="s">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A159" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B159" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C159" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="D158" s="6" t="s">
+      <c r="D159" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="E158" s="6" t="s">
+      <c r="E159" s="6" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A160" s="7" t="s">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A161" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B161" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C161" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D161" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="E160" s="7" t="s">
+      <c r="E161" s="7" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A161" s="6" t="s">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A162" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B162" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6" t="s">
+      <c r="C162" s="6"/>
+      <c r="D162" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="E162" s="6" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A162" s="7" t="s">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A163" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B163" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="C163" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="D162" s="7" t="s">
+      <c r="D163" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="E162" s="7" t="s">
+      <c r="E163" s="7" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A163" s="6" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A164" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B164" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C164" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="D163" s="6" t="s">
+      <c r="D164" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="E163" s="6" t="s">
+      <c r="E164" s="6" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A164" s="7" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A165" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B165" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="C164" s="7" t="s">
+      <c r="C165" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="D164" s="7" t="s">
+      <c r="D165" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="E164" s="7" t="s">
+      <c r="E165" s="7" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A165" s="6" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A166" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B166" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C166" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="D165" s="6" t="s">
+      <c r="D166" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="E165" s="6" t="s">
+      <c r="E166" s="6" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A166" s="7" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A167" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B167" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="C166" s="7" t="s">
+      <c r="C167" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="D166" s="7" t="s">
+      <c r="D167" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="E166" s="7" t="s">
+      <c r="E167" s="7" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A167" s="6" t="s">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A168" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B168" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C168" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="D167" s="6" t="s">
+      <c r="D168" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="E167" s="6" t="s">
+      <c r="E168" s="6" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A168" s="7" t="s">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A169" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B169" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="C169" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="D169" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="E168" s="7" t="s">
+      <c r="E169" s="7" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A169" s="6" t="s">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A170" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B170" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="C170" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="D169" s="6" t="s">
+      <c r="D170" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="E169" s="6" t="s">
+      <c r="E170" s="6" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A170" s="7" t="s">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A171" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="B170" s="7" t="s">
+      <c r="B171" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="C170" s="7" t="s">
+      <c r="C171" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="D170" s="7" t="s">
+      <c r="D171" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="E170" s="7" t="s">
+      <c r="E171" s="7" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A172" s="6" t="s">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A173" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B173" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C173" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="D172" s="6" t="s">
+      <c r="D173" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="E172" s="6" t="s">
+      <c r="E173" s="6" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A173" s="7" t="s">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A174" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B174" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C174" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="D173" s="7" t="s">
+      <c r="D174" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="E173" s="7" t="s">
+      <c r="E174" s="7" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A174" s="6" t="s">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A175" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B175" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C175" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="D174" s="6" t="s">
+      <c r="D175" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E174" s="6" t="s">
+      <c r="E175" s="6" t="s">
         <v>600</v>
       </c>
     </row>

--- a/BGM一览.xlsx
+++ b/BGM一览.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="618">
   <si>
     <t>Sensitive Heart</t>
     <phoneticPr fontId="6"/>
@@ -4819,6 +4819,104 @@
   </si>
   <si>
     <t>星幽剣士</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>清</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>兰</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>兎は舞い降りた</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>上海アリス幻樂団</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>上海アリス幻樂団</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>珠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　～ Legacy of Lunatic Kingdom</t>
+    </r>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -5100,7 +5198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
@@ -5111,6 +5209,7 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - 强调文字颜色 2" xfId="4" builtinId="35"/>
@@ -5418,10 +5517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F175"/>
+  <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7446,536 +7545,551 @@
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2" t="s">
-        <v>135</v>
+        <v>615</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A138" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A137" s="3" t="s">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A139" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B139" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3" t="s">
+      <c r="C139" s="3"/>
+      <c r="D139" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E139" s="3" t="s">
         <v>471</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A138" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A139" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
-        <v>319</v>
+        <v>472</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>321</v>
+        <v>475</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>209</v>
+        <v>476</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>322</v>
+        <v>477</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A142" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1" t="s">
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A148" s="4" t="s">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A150" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A149" s="5" t="s">
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A151" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B151" t="s">
         <v>333</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C151" t="s">
         <v>377</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D151" t="s">
         <v>334</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E151" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A150" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="F150" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A151" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>500</v>
+        <v>232</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>501</v>
+        <v>484</v>
+      </c>
+      <c r="F152" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" s="6" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>504</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="C158" s="7"/>
+        <v>513</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>514</v>
+      </c>
       <c r="D158" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>523</v>
+        <v>515</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A160" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A161" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B161" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C161" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="D159" s="6" t="s">
+      <c r="D161" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="E159" s="6" t="s">
+      <c r="E161" s="6" t="s">
         <v>534</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A161" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="E161" s="7" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A162" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" s="7" t="s">
-        <v>548</v>
+        <v>603</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>492</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="C164" s="6"/>
       <c r="D164" s="6" t="s">
-        <v>577</v>
+        <v>604</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>581</v>
+        <v>492</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170" s="6" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A172" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A173" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B173" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="C171" s="7" t="s">
+      <c r="C173" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="D171" s="7" t="s">
+      <c r="D173" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="E171" s="7" t="s">
+      <c r="E173" s="7" t="s">
         <v>572</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A173" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A174" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A176" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A177" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B177" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C177" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="D175" s="6" t="s">
+      <c r="D177" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E175" s="6" t="s">
+      <c r="E177" s="6" t="s">
         <v>600</v>
       </c>
     </row>

--- a/BGM一览.xlsx
+++ b/BGM一览.xlsx
@@ -5519,8 +5519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/BGM一览.xlsx
+++ b/BGM一览.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="620">
   <si>
     <t>Sensitive Heart</t>
     <phoneticPr fontId="6"/>
@@ -4917,6 +4917,14 @@
       </rPr>
       <t>　～ Legacy of Lunatic Kingdom</t>
     </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>梦子</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>悲しき人形 ～ Doll of Misery</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -5517,10 +5525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5880,2216 +5888,2231 @@
         <v>608</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3" t="s">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3" t="s">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="3" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3" t="s">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="2" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1" t="s">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3" t="s">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="3" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="2" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1" t="s">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3" t="s">
+      <c r="C66" s="3"/>
+      <c r="D66" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="2" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1" t="s">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="3" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3" t="s">
+      <c r="D70" s="3"/>
+      <c r="E70" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="2" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2" t="s">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3" t="s">
+      <c r="C72" s="3"/>
+      <c r="D72" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="3" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="2" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1" t="s">
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="2" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="1" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="3" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3" t="s">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E79" s="3" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="2" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2" t="s">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="3" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="2" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="3" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="2" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="1" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1" t="s">
+      <c r="C88" s="1"/>
+      <c r="D88" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="3" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3" t="s">
+      <c r="C89" s="3"/>
+      <c r="D89" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="2" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="3" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E92" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="2" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="3" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E94" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="2" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="1" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="3" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B98" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3" t="s">
+      <c r="C98" s="3"/>
+      <c r="D98" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E98" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="2" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="3" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E101" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="2" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B102" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="1" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="3" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D104" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E104" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" s="2" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2" t="s">
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" s="1" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1" t="s">
+      <c r="C106" s="1"/>
+      <c r="D106" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A106" s="3" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D107" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E107" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A108" s="2" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E109" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A109" s="1" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1" t="s">
+      <c r="C110" s="1"/>
+      <c r="D110" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A110" s="3" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3" t="s">
+      <c r="C111" s="3"/>
+      <c r="D111" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E111" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A111" s="1" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A112" s="3" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B113" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3" t="s">
+      <c r="C113" s="3"/>
+      <c r="D113" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E113" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A113" s="2" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A114" s="1" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1" t="s">
+      <c r="C115" s="1"/>
+      <c r="D115" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A115" s="3" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B116" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D116" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E116" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A117" s="2" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2" t="s">
+      <c r="C118" s="2"/>
+      <c r="D118" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A118" s="1" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A119" s="3" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A120" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B120" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D120" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E120" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A120" s="1" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1" t="s">
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A121" s="2" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2" t="s">
+      <c r="C122" s="2"/>
+      <c r="D122" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A122" s="1" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A123" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A123" s="3" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A124" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B124" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D124" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E124" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A124" s="2" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B125" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2" t="s">
+      <c r="C125" s="2"/>
+      <c r="D125" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A125" s="1" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A126" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A127" s="3" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A128" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B128" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3" t="s">
+      <c r="C128" s="3"/>
+      <c r="D128" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E128" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A128" s="2" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A129" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B129" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C129" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E129" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A129" s="1" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A130" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A130" s="3" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A131" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B131" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C131" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D131" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="E131" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A131" s="2" t="s">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A132" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B132" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D132" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E132" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A132" s="1" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A133" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A133" s="3" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A134" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B134" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C134" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D134" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E134" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A134" s="2" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A135" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B135" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2" t="s">
+      <c r="C135" s="2"/>
+      <c r="D135" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E135" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A136" s="3" t="s">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A137" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B137" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3" t="s">
+      <c r="C137" s="3"/>
+      <c r="D137" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E136" s="10" t="s">
+      <c r="E137" s="10" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A138" s="1" t="s">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A139" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A139" s="3" t="s">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A140" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B140" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3" t="s">
+      <c r="C140" s="3"/>
+      <c r="D140" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E140" s="3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A140" s="2" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A141" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B141" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C141" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D141" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E141" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A141" s="1" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A142" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1" t="s">
+      <c r="C142" s="1"/>
+      <c r="D142" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="E142" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A142" s="2" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A143" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B143" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C143" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D143" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E143" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A143" s="1" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A144" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1" t="s">
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A150" s="4" t="s">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A151" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A151" s="5" t="s">
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A152" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" t="s">
         <v>333</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C152" t="s">
         <v>377</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D152" t="s">
         <v>334</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E152" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A152" s="7" t="s">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A153" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B153" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C153" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D152" s="7" t="s">
+      <c r="D153" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E152" s="7" t="s">
+      <c r="E153" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F153" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A153" s="6" t="s">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A154" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B154" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C154" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="D153" s="6" t="s">
+      <c r="D154" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="E153" s="6" t="s">
+      <c r="E154" s="6" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A154" s="7" t="s">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A155" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B155" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C155" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="D155" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="E154" s="7" t="s">
+      <c r="E155" s="7" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A155" s="6" t="s">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A156" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B156" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C156" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="D155" s="6" t="s">
+      <c r="D156" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="E155" s="6" t="s">
+      <c r="E156" s="6" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A156" s="7" t="s">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A157" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B157" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="C157" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D157" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="E156" s="7" t="s">
+      <c r="E157" s="7" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A157" s="6" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A158" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B158" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C158" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="D157" s="6" t="s">
+      <c r="D158" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="E157" s="6" t="s">
+      <c r="E158" s="6" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A158" s="7" t="s">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A159" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B159" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C159" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D159" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="E158" s="7" t="s">
+      <c r="E159" s="7" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A159" s="6" t="s">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A160" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B160" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C160" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="D159" s="6" t="s">
+      <c r="D160" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="E159" s="6" t="s">
+      <c r="E160" s="6" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A160" s="7" t="s">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A161" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B161" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="C160" s="7"/>
-      <c r="D160" s="7" t="s">
+      <c r="C161" s="7"/>
+      <c r="D161" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="E160" s="8" t="s">
+      <c r="E161" s="8" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A161" s="6" t="s">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A162" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B162" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C162" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="D161" s="6" t="s">
+      <c r="D162" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="E162" s="6" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A163" s="7" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A164" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B164" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C164" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="D163" s="7" t="s">
+      <c r="D164" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="E163" s="7" t="s">
+      <c r="E164" s="7" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A164" s="6" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A165" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B165" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="C164" s="6"/>
-      <c r="D164" s="6" t="s">
+      <c r="C165" s="6"/>
+      <c r="D165" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="E164" s="6" t="s">
+      <c r="E165" s="6" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A165" s="7" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A166" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B166" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="C165" s="7" t="s">
+      <c r="C166" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="D165" s="7" t="s">
+      <c r="D166" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="E165" s="7" t="s">
+      <c r="E166" s="7" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A166" s="6" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A167" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B167" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C167" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="D166" s="6" t="s">
+      <c r="D167" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="E166" s="6" t="s">
+      <c r="E167" s="6" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A167" s="7" t="s">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A168" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B168" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="C167" s="7" t="s">
+      <c r="C168" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="D167" s="7" t="s">
+      <c r="D168" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="E167" s="7" t="s">
+      <c r="E168" s="7" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A168" s="6" t="s">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A169" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B169" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C169" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="D168" s="6" t="s">
+      <c r="D169" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="E168" s="6" t="s">
+      <c r="E169" s="6" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A169" s="7" t="s">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A170" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="B170" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="C169" s="7" t="s">
+      <c r="C170" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="D169" s="7" t="s">
+      <c r="D170" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="E169" s="7" t="s">
+      <c r="E170" s="7" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A170" s="6" t="s">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A171" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B171" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="C171" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="D170" s="6" t="s">
+      <c r="D171" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="E170" s="6" t="s">
+      <c r="E171" s="6" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A171" s="7" t="s">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A172" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B172" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="C171" s="7" t="s">
+      <c r="C172" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="D171" s="7" t="s">
+      <c r="D172" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="E171" s="7" t="s">
+      <c r="E172" s="7" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A172" s="6" t="s">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A173" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B173" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C173" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="D172" s="6" t="s">
+      <c r="D173" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="E172" s="6" t="s">
+      <c r="E173" s="6" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A173" s="7" t="s">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A174" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B174" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C174" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="D173" s="7" t="s">
+      <c r="D174" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="E173" s="7" t="s">
+      <c r="E174" s="7" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A175" s="6" t="s">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A176" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B176" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C176" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="D175" s="6" t="s">
+      <c r="D176" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="E175" s="6" t="s">
+      <c r="E176" s="6" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A176" s="7" t="s">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A177" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="B177" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="C176" s="7" t="s">
+      <c r="C177" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="D176" s="7" t="s">
+      <c r="D177" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="E176" s="7" t="s">
+      <c r="E177" s="7" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A177" s="6" t="s">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A178" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B178" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="C178" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="D177" s="6" t="s">
+      <c r="D178" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E177" s="6" t="s">
+      <c r="E178" s="6" t="s">
         <v>600</v>
       </c>
     </row>

--- a/BGM一览.xlsx
+++ b/BGM一览.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="624">
   <si>
     <t>Sensitive Heart</t>
     <phoneticPr fontId="6"/>
@@ -4925,6 +4925,46 @@
   </si>
   <si>
     <t>悲しき人形 ～ Doll of Misery</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>恋色マスタースパーク</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Sensitive Heart</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>月射録 ～ The Moon-shooter</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>（神）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雨魔理沙</t>
+    </r>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -5107,7 +5147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5143,6 +5183,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -5185,7 +5231,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -5205,8 +5251,11 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
@@ -5218,8 +5267,10 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="7" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
+    <cellStyle name="20% - 强调文字颜色 1" xfId="7" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="4" builtinId="35"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -5525,10 +5576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F178"/>
+  <dimension ref="A1:F179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5644,7 +5695,7 @@
         <v>328</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>328</v>
+        <v>620</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>329</v>
@@ -5654,2465 +5705,2482 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="9" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3" t="s">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3" t="s">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="2" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3" t="s">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="2" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1" t="s">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="3" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3" t="s">
+      <c r="C62" s="3"/>
+      <c r="D62" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="2" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1" t="s">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="3" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3" t="s">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E67" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1" t="s">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="3" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3" t="s">
+      <c r="D71" s="3"/>
+      <c r="E71" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2" t="s">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3" t="s">
+      <c r="C73" s="3"/>
+      <c r="D73" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="3" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1" t="s">
+      <c r="C76" s="1"/>
+      <c r="D76" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="2" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="3" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3" t="s">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="2" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2" t="s">
+      <c r="C81" s="2"/>
+      <c r="D81" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="3" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="2" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="3" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E87" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="2" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="1" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1" t="s">
+      <c r="C89" s="1"/>
+      <c r="D89" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="3" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3" t="s">
+      <c r="C90" s="3"/>
+      <c r="D90" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E90" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="2" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="1" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="3" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B93" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E93" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="2" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="3" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E95" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="2" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="1" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="3" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3" t="s">
+      <c r="C99" s="3"/>
+      <c r="D99" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E99" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="2" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="1" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="3" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D102" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E102" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="2" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="1" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" s="3" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D105" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E105" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" s="2" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2" t="s">
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A106" s="1" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1" t="s">
+      <c r="C107" s="1"/>
+      <c r="D107" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A107" s="3" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E108" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A109" s="2" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A110" s="1" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1" t="s">
+      <c r="C111" s="1"/>
+      <c r="D111" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A111" s="3" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B112" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3" t="s">
+      <c r="C112" s="3"/>
+      <c r="D112" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E112" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A112" s="1" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A113" s="3" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B114" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3" t="s">
+      <c r="C114" s="3"/>
+      <c r="D114" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E114" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A114" s="2" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B115" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A115" s="1" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1" t="s">
+      <c r="C116" s="1"/>
+      <c r="D116" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A116" s="3" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D117" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E117" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A118" s="2" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A119" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B119" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2" t="s">
+      <c r="C119" s="2"/>
+      <c r="D119" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A119" s="1" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A120" s="3" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A121" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B121" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D121" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E121" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A121" s="1" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A122" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1" t="s">
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A122" s="2" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2" t="s">
+      <c r="C123" s="2"/>
+      <c r="D123" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A123" s="1" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A124" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A124" s="3" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A125" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B125" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C125" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D125" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E125" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A125" s="2" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A126" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2" t="s">
+      <c r="C126" s="2"/>
+      <c r="D126" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A126" s="1" t="s">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A127" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A128" s="3" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A129" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B129" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3" t="s">
+      <c r="C129" s="3"/>
+      <c r="D129" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E129" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A129" s="2" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A130" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B130" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D130" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E130" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A130" s="1" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A131" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A131" s="3" t="s">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A132" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B132" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C132" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D132" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E132" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A132" s="2" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A133" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B133" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E133" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A133" s="1" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A134" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A134" s="3" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A135" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B135" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C135" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D135" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E135" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A135" s="2" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A136" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B136" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2" t="s">
+      <c r="C136" s="2"/>
+      <c r="D136" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E136" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A137" s="3" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A138" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B138" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3" t="s">
+      <c r="C138" s="3"/>
+      <c r="D138" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E137" s="10" t="s">
+      <c r="E138" s="10" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A139" s="1" t="s">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A140" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A140" s="3" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A141" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B141" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3" t="s">
+      <c r="C141" s="3"/>
+      <c r="D141" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E141" s="3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A141" s="2" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A142" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B142" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D142" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E142" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A142" s="1" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1" t="s">
+      <c r="C143" s="1"/>
+      <c r="D143" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="E143" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A143" s="2" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A144" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B144" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C144" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D144" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="E144" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A144" s="1" t="s">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A145" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1" t="s">
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A151" s="4" t="s">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A152" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A152" s="5" t="s">
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A153" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>333</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C153" t="s">
         <v>377</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D153" t="s">
         <v>334</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E153" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A153" s="7" t="s">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A154" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B154" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C154" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="D154" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E153" s="7" t="s">
+      <c r="E154" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F154" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A154" s="6" t="s">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A155" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B155" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="C155" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="D154" s="6" t="s">
+      <c r="D155" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="E154" s="6" t="s">
+      <c r="E155" s="6" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A155" s="7" t="s">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A156" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B156" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C156" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D156" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="E156" s="7" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A156" s="6" t="s">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A157" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B157" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C157" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="D156" s="6" t="s">
+      <c r="D157" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="E156" s="6" t="s">
+      <c r="E157" s="6" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A157" s="7" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A158" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B158" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C158" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D158" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="E157" s="7" t="s">
+      <c r="E158" s="7" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A158" s="6" t="s">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A159" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B159" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C159" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="D158" s="6" t="s">
+      <c r="D159" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="E158" s="6" t="s">
+      <c r="E159" s="6" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A159" s="7" t="s">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A160" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B160" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="C160" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="D159" s="7" t="s">
+      <c r="D160" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="E159" s="7" t="s">
+      <c r="E160" s="7" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A160" s="6" t="s">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A161" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B161" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C161" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="D160" s="6" t="s">
+      <c r="D161" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="E160" s="6" t="s">
+      <c r="E161" s="6" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A161" s="7" t="s">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A162" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B162" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7" t="s">
+      <c r="C162" s="7"/>
+      <c r="D162" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="E161" s="8" t="s">
+      <c r="E162" s="8" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A162" s="6" t="s">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A163" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B163" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C163" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="D162" s="6" t="s">
+      <c r="D163" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="E162" s="6" t="s">
+      <c r="E163" s="6" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A164" s="7" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A165" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B165" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="C164" s="7" t="s">
+      <c r="C165" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="D164" s="7" t="s">
+      <c r="D165" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="E164" s="7" t="s">
+      <c r="E165" s="7" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A165" s="6" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A166" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B166" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="C165" s="6"/>
-      <c r="D165" s="6" t="s">
+      <c r="C166" s="6"/>
+      <c r="D166" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="E165" s="6" t="s">
+      <c r="E166" s="6" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A166" s="7" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A167" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B167" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="C166" s="7" t="s">
+      <c r="C167" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="D166" s="7" t="s">
+      <c r="D167" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="E166" s="7" t="s">
+      <c r="E167" s="7" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A167" s="6" t="s">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A168" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B168" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C168" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="D167" s="6" t="s">
+      <c r="D168" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="E167" s="6" t="s">
+      <c r="E168" s="6" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A168" s="7" t="s">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A169" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B169" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="C169" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="D169" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="E168" s="7" t="s">
+      <c r="E169" s="7" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A169" s="6" t="s">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A170" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B170" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="C170" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="D169" s="6" t="s">
+      <c r="D170" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="E169" s="6" t="s">
+      <c r="E170" s="6" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A170" s="7" t="s">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A171" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="B170" s="7" t="s">
+      <c r="B171" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="C170" s="7" t="s">
+      <c r="C171" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="D170" s="7" t="s">
+      <c r="D171" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="E170" s="7" t="s">
+      <c r="E171" s="7" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A171" s="6" t="s">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A172" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B172" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="C172" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="D171" s="6" t="s">
+      <c r="D172" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="E171" s="6" t="s">
+      <c r="E172" s="6" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A172" s="7" t="s">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A173" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="B172" s="7" t="s">
+      <c r="B173" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="C172" s="7" t="s">
+      <c r="C173" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="D172" s="7" t="s">
+      <c r="D173" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="E172" s="7" t="s">
+      <c r="E173" s="7" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A173" s="6" t="s">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A174" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B174" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C174" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="D173" s="6" t="s">
+      <c r="D174" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="E173" s="6" t="s">
+      <c r="E174" s="6" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A174" s="7" t="s">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A175" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="B174" s="7" t="s">
+      <c r="B175" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="C174" s="7" t="s">
+      <c r="C175" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="D174" s="7" t="s">
+      <c r="D175" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="E174" s="7" t="s">
+      <c r="E175" s="7" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A176" s="6" t="s">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A177" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B177" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C177" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="D176" s="6" t="s">
+      <c r="D177" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="E176" s="6" t="s">
+      <c r="E177" s="6" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A177" s="7" t="s">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A178" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B178" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="C177" s="7" t="s">
+      <c r="C178" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="D177" s="7" t="s">
+      <c r="D178" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="E177" s="7" t="s">
+      <c r="E178" s="7" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A178" s="6" t="s">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A179" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B179" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="C179" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="D178" s="6" t="s">
+      <c r="D179" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E178" s="6" t="s">
+      <c r="E179" s="6" t="s">
         <v>600</v>
       </c>
     </row>

--- a/BGM一览.xlsx
+++ b/BGM一览.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="630">
   <si>
     <t>Sensitive Heart</t>
     <phoneticPr fontId="6"/>
@@ -4965,6 +4965,63 @@
       </rPr>
       <t>雨魔理沙</t>
     </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>纯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>狐</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>赫卡提亚</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>パンデモニックプラネット</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>克劳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恩皮斯</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ピュアヒューリーズ　～ 心の在処</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>星条旗のピエロ</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -5576,10 +5633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7643,544 +7700,568 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A138" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="E138" s="10" t="s">
-        <v>617</v>
+      <c r="A138" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B138" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A139" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B139" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A140" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>314</v>
+      <c r="A140" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B140" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" s="3" t="s">
-        <v>315</v>
+        <v>613</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>316</v>
+        <v>614</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A142" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>477</v>
+        <v>616</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A144" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A145" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A146" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1" t="s">
+      <c r="C146" s="1"/>
+      <c r="D146" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A144" s="2" t="s">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A147" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B147" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C147" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D147" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E147" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A145" s="1" t="s">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A148" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1" t="s">
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A152" s="4" t="s">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A155" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A153" s="5" t="s">
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A156" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B156" t="s">
         <v>333</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C156" t="s">
         <v>377</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D156" t="s">
         <v>334</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E156" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A154" s="7" t="s">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A157" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B157" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C157" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="D157" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E154" s="7" t="s">
+      <c r="E157" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F157" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A155" s="6" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A158" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B158" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C158" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="D155" s="6" t="s">
+      <c r="D158" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="E155" s="6" t="s">
+      <c r="E158" s="6" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A156" s="7" t="s">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A159" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B159" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="C159" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D159" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="E156" s="7" t="s">
+      <c r="E159" s="7" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A157" s="6" t="s">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A160" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B160" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C160" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="D157" s="6" t="s">
+      <c r="D160" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="E157" s="6" t="s">
+      <c r="E160" s="6" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A158" s="7" t="s">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A161" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B161" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C161" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D161" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="E158" s="7" t="s">
+      <c r="E161" s="7" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A159" s="6" t="s">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A162" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B162" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C162" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="D159" s="6" t="s">
+      <c r="D162" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="E159" s="6" t="s">
+      <c r="E162" s="6" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A160" s="7" t="s">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A163" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B163" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C163" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D163" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="E160" s="7" t="s">
+      <c r="E163" s="7" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A161" s="6" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A164" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B164" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C164" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="D161" s="6" t="s">
+      <c r="D164" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="E164" s="6" t="s">
         <v>520</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A162" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="E162" s="8" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A163" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" s="7" t="s">
-        <v>603</v>
+        <v>539</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>545</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="C165" s="7"/>
       <c r="D165" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>547</v>
+        <v>522</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A168" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A169" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B169" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="C166" s="6"/>
-      <c r="D166" s="6" t="s">
+      <c r="C169" s="6"/>
+      <c r="D169" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="E166" s="6" t="s">
+      <c r="E169" s="6" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A167" s="7" t="s">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A170" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B170" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="C167" s="7" t="s">
+      <c r="C170" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="D167" s="7" t="s">
+      <c r="D170" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="E167" s="7" t="s">
+      <c r="E170" s="7" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A168" s="6" t="s">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A171" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B171" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C171" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="D168" s="6" t="s">
+      <c r="D171" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="E168" s="6" t="s">
+      <c r="E171" s="6" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A169" s="7" t="s">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A172" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="B172" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="C169" s="7" t="s">
+      <c r="C172" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="D169" s="7" t="s">
+      <c r="D172" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="E169" s="7" t="s">
+      <c r="E172" s="7" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A170" s="6" t="s">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A173" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B173" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="C173" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="D170" s="6" t="s">
+      <c r="D173" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="E170" s="6" t="s">
+      <c r="E173" s="6" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A171" s="7" t="s">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A174" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B174" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="C171" s="7" t="s">
+      <c r="C174" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="D171" s="7" t="s">
+      <c r="D174" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="E171" s="7" t="s">
+      <c r="E174" s="7" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A172" s="6" t="s">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A175" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B175" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C175" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="D172" s="6" t="s">
+      <c r="D175" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="E172" s="6" t="s">
+      <c r="E175" s="6" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A173" s="7" t="s">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A176" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B176" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C176" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="D173" s="7" t="s">
+      <c r="D176" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="E173" s="7" t="s">
+      <c r="E176" s="7" t="s">
         <v>567</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A174" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="D174" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A175" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="D175" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="E175" s="7" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" s="6" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A180" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A181" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B181" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="C178" s="7" t="s">
+      <c r="C181" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="D178" s="7" t="s">
+      <c r="D181" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="E178" s="7" t="s">
+      <c r="E181" s="7" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A179" s="6" t="s">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A182" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B182" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C182" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="D179" s="6" t="s">
+      <c r="D182" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E179" s="6" t="s">
+      <c r="E182" s="6" t="s">
         <v>600</v>
       </c>
     </row>
